--- a/AnimalCrossing/back/crawling/insect.xlsx
+++ b/AnimalCrossing/back/crawling/insect.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="203">
   <si>
     <t>이름</t>
   </si>
@@ -34,244 +34,244 @@
     <t>판매 가격(벨)</t>
   </si>
   <si>
-    <t>배추흰나비モンシロチョウCommon Butterfly</t>
-  </si>
-  <si>
-    <t>노랑나비モンキチョウYellow Butterfly</t>
-  </si>
-  <si>
-    <t>호랑나비アゲハチョウTiger Butterfly</t>
-  </si>
-  <si>
-    <t>제비나비カラスアゲハPeacock Butterfly</t>
-  </si>
-  <si>
-    <t>청띠제비나비アオスジアゲハCommon Bluebottle</t>
-  </si>
-  <si>
-    <t>왕얼룩나비オオゴマダラPaper Kite Butterfly</t>
-  </si>
-  <si>
-    <t>왕오색나비オオムラサキGreat Purple Emperor</t>
-  </si>
-  <si>
-    <t>왕나비オオカバマダラMonach Butterfly</t>
-  </si>
-  <si>
-    <t>몰포나비モルフォチョウEmperor Butterfly</t>
-  </si>
-  <si>
-    <t>아그리아스나비[3]ミイロタテハAgrias Butterfly</t>
-  </si>
-  <si>
-    <t>붉은목도리비단나비[4]アカエリトリバネアゲハRaja Brooke's Birdwing</t>
-  </si>
-  <si>
-    <t>알렉산드라비단제비나비[5]アレキサンドラトリバネアゲハQueen Alexandra's Birdwing</t>
-  </si>
-  <si>
-    <t>나방ガMoth</t>
-  </si>
-  <si>
-    <t>아틀라스나방[7]ヨナグニサンAtlas Moth</t>
-  </si>
-  <si>
-    <t>마다가스카르비단제비나방ニシキオオツバメガMadagascan Sunset Moth</t>
-  </si>
-  <si>
-    <t>방아깨비ショウリョウバッタLong Locust</t>
-  </si>
-  <si>
-    <t>섬풀무치[8]トノサマバッタMigratory Locust</t>
-  </si>
-  <si>
-    <t>메뚜기イナゴRice Grasshopper</t>
-  </si>
-  <si>
-    <t>여치キリギリスGrasshopper</t>
-  </si>
-  <si>
-    <t>귀뚜라미コオロギCricket</t>
-  </si>
-  <si>
-    <t>방울벌레スズムシBell Cricket</t>
-  </si>
-  <si>
-    <t>사마귀カマキリMantis</t>
-  </si>
-  <si>
-    <t>연꽃사마귀ハナカマキリOrchid Mantis</t>
-  </si>
-  <si>
-    <t>꿀벌ミツバチHoneybee</t>
-  </si>
-  <si>
-    <t>벌ハチWasp[9]</t>
-  </si>
-  <si>
-    <t>유지매미アブラゼミBrown Cicada</t>
-  </si>
-  <si>
-    <t>참매미ミンミンゼミRobust Cicada</t>
-  </si>
-  <si>
-    <t>곰매미クマゼミGiant Cicada</t>
-  </si>
-  <si>
-    <t>애매미ツクツクホウシWalker Cicada</t>
-  </si>
-  <si>
-    <t>쓰르라미[11]ヒグラシEvening Cicada</t>
-  </si>
-  <si>
-    <t>매미 허물[12]セミのぬけがらCicada Shell이게 왜 곤충인건데</t>
-  </si>
-  <si>
-    <t>고추잠자리アキアカネRed Dragonfly</t>
-  </si>
-  <si>
-    <t>왕잠자리ギンヤンマDarner Dragonfly</t>
-  </si>
-  <si>
-    <t>장수잠자리オニヤンマBanded Dragonfly</t>
-  </si>
-  <si>
-    <t>실잠자리イトトンボDamselfly</t>
-  </si>
-  <si>
-    <t>반디ホタルFirefly</t>
-  </si>
-  <si>
-    <t>땅강아지オケラMole Cricket</t>
-  </si>
-  <si>
-    <t>소금쟁이アメンボPondskater</t>
-  </si>
-  <si>
-    <t>물방개ゲンゴロウDiving Beetle</t>
-  </si>
-  <si>
-    <t>물장군タガメGiant Water Bug</t>
-  </si>
-  <si>
-    <t>노린재カメムシStinkbug</t>
-  </si>
-  <si>
-    <t>인면노린재ジンメンカメムシMan-faced Stink Bug</t>
-  </si>
-  <si>
-    <t>무당벌레てんとう虫Ladybug</t>
-  </si>
-  <si>
-    <t>길앞잡이ハンミョウTiger Beetle</t>
-  </si>
-  <si>
-    <t>비단벌레タマムシJewel Beetle</t>
-  </si>
-  <si>
-    <t>바이올린벌레[14]バイオリンムシViolin Beetle</t>
-  </si>
-  <si>
-    <t>알락하늘소[15]ゴマダラカミキリCitrus Long-horned Beetle</t>
-  </si>
-  <si>
-    <t>루리하늘소ルリボシカミキリRosalia Batesi Beetle</t>
-  </si>
-  <si>
-    <t>유포루스바구미ホウセキゾウムシBlue Weevil Beetle</t>
-  </si>
-  <si>
-    <t>쇠똥구리フンコロガシDung Beetle</t>
-  </si>
-  <si>
-    <t>보라금풍뎅이オオセンチコガネEarth-boring Dung Beetle</t>
-  </si>
-  <si>
-    <t>보석풍뎅이プラチナコガネScarab Beetle</t>
-  </si>
-  <si>
-    <t>풍이カナブンDrone Beetle</t>
-  </si>
-  <si>
-    <t>골리앗왕꽃무지ゴライアスオオツノハナムグリGoliath Beetle</t>
-  </si>
-  <si>
-    <t>톱사슴벌레ノコギリクワガタSaw Stag</t>
-  </si>
-  <si>
-    <t>사슴벌레ミヤマクワガタMiyama Stag</t>
-  </si>
-  <si>
-    <t>왕사슴벌레オオクワガタGiant Stag</t>
-  </si>
-  <si>
-    <t>뮤엘러리사슴벌레ニジイロクワガタRainbow Stag</t>
-  </si>
-  <si>
-    <t>엘라푸스가위사슴벌레ホソアカクワガタCyclommatus Stag</t>
-  </si>
-  <si>
-    <t>황금사슴벌레オウゴンオニクワガタGolden Stag</t>
-  </si>
-  <si>
-    <t>기라파톱사슴벌레ギラファノコギリクワガタGiraffe Stag</t>
-  </si>
-  <si>
-    <t>장수풍뎅이カブトムシHorned Dynastid</t>
-  </si>
-  <si>
-    <t>코카서스장수풍뎅이コーカサスオオカブトHorned Atlas</t>
-  </si>
-  <si>
-    <t>코끼리장수풍뎅이ゾウカブトHorned Elephant</t>
-  </si>
-  <si>
-    <t>헤라클레스장수풍뎅이ヘラクレスオオカブトHorned Herucles</t>
-  </si>
-  <si>
-    <t>긴수염대벌레ナナフシWalking Stick</t>
-  </si>
-  <si>
-    <t>잎사귀벌레コノハムシWalking Leaf</t>
-  </si>
-  <si>
-    <t>도롱이벌레[18]ミノムシBagworm</t>
-  </si>
-  <si>
-    <t>개미アリAnt</t>
-  </si>
-  <si>
-    <t>소라게ヤドカリHermit Crab</t>
-  </si>
-  <si>
-    <t>갯강구フナムシWharf Roach</t>
-  </si>
-  <si>
-    <t>파리ハエFly</t>
-  </si>
-  <si>
-    <t>모기[20]カMosquito</t>
-  </si>
-  <si>
-    <t>벼룩ノミFlea</t>
-  </si>
-  <si>
-    <t>달팽이カタツムリSnail</t>
-  </si>
-  <si>
-    <t>공벌레[22]ダンゴムシPill Bug</t>
-  </si>
-  <si>
-    <t>지네ムカデCentipede</t>
-  </si>
-  <si>
-    <t>거미クモSpider</t>
-  </si>
-  <si>
-    <t>타란툴라タランチュラTarantula</t>
-  </si>
-  <si>
-    <t>전갈サソリScorpion</t>
+    <t xml:space="preserve">배추흰나비 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">노랑나비 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">호랑나비 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제비나비 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">청띠제비나비 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">왕얼룩나비  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">왕오색나비  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">왕나비 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">몰포나비 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">아그리아스나비 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">붉은목도리비단나비  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">알렉산드라비단제비나비  </t>
+  </si>
+  <si>
+    <t>나방</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아틀라스나방 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">마다가스카르비단제비나방  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">방아깨비 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">섬풀무치 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">메뚜기 </t>
+  </si>
+  <si>
+    <t>여치</t>
+  </si>
+  <si>
+    <t>귀뚜라미</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방울벌레 </t>
+  </si>
+  <si>
+    <t>사마귀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">연꽃사마귀 </t>
+  </si>
+  <si>
+    <t>꿀벌</t>
+  </si>
+  <si>
+    <t>벌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">유지매미 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">참매미 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">곰매미 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">애매미 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">쓰르라미 </t>
+  </si>
+  <si>
+    <t>매미 허물 이게 왜 곤충인건데</t>
+  </si>
+  <si>
+    <t xml:space="preserve">고추잠자리 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">왕잠자리 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">장수잠자리 </t>
+  </si>
+  <si>
+    <t>실잠자리</t>
+  </si>
+  <si>
+    <t>반디</t>
+  </si>
+  <si>
+    <t xml:space="preserve">땅강아지 </t>
+  </si>
+  <si>
+    <t>소금쟁이</t>
+  </si>
+  <si>
+    <t xml:space="preserve">물방개 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">물장군  </t>
+  </si>
+  <si>
+    <t>노린재</t>
+  </si>
+  <si>
+    <t xml:space="preserve">인면노린재  </t>
+  </si>
+  <si>
+    <t>무당벌레</t>
+  </si>
+  <si>
+    <t xml:space="preserve">길앞잡이 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">비단벌레 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">바이올린벌레 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">알락하늘소  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">루리하늘소  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">유포루스바구미  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">쇠똥구리 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">보라금풍뎅이  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">보석풍뎅이 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">풍이 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">골리앗왕꽃무지 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">톱사슴벌레 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">사슴벌레 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">왕사슴벌레 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">뮤엘러리사슴벌레 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">엘라푸스가위사슴벌레 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">황금사슴벌레 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">기라파톱사슴벌레 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">장수풍뎅이 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">코카서스장수풍뎅이 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">코끼리장수풍뎅이 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">헤라클레스장수풍뎅이 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">긴수염대벌레 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">잎사귀벌레 </t>
+  </si>
+  <si>
+    <t>도롱이벌레</t>
+  </si>
+  <si>
+    <t>개미</t>
+  </si>
+  <si>
+    <t xml:space="preserve">소라게 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">갯강구 </t>
+  </si>
+  <si>
+    <t>파리</t>
+  </si>
+  <si>
+    <t>모기</t>
+  </si>
+  <si>
+    <t>벼룩</t>
+  </si>
+  <si>
+    <t>달팽이</t>
+  </si>
+  <si>
+    <t xml:space="preserve">공벌레 </t>
+  </si>
+  <si>
+    <t>지네</t>
+  </si>
+  <si>
+    <t>거미</t>
+  </si>
+  <si>
+    <t>타란툴라</t>
+  </si>
+  <si>
+    <t>전갈</t>
   </si>
   <si>
     <t>9월~6월</t>
@@ -457,10 +457,13 @@
     <t>나무(흔들기)[10]</t>
   </si>
   <si>
+    <t>공중[13]</t>
+  </si>
+  <si>
     <t>물가</t>
   </si>
   <si>
-    <t>땅 속(울음 소리)[13]</t>
+    <t>땅 속(울음 소리)[14]</t>
   </si>
   <si>
     <t>물 위</t>
@@ -478,10 +481,10 @@
     <t>공(e+)눈덩이(놀동숲 이후)</t>
   </si>
   <si>
-    <t>나무[16]</t>
-  </si>
-  <si>
-    <t>야자수[17]</t>
+    <t>나무[17]</t>
+  </si>
+  <si>
+    <t>야자수[18]</t>
   </si>
   <si>
     <t>나무, 야자수</t>
@@ -496,7 +499,7 @@
     <t>썩은 무</t>
   </si>
   <si>
-    <t>해변(소라껍데기로 위장)[19]</t>
+    <t>해변(소라껍데기로 위장)[20]</t>
   </si>
   <si>
     <t>해변 암반</t>
@@ -505,7 +508,7 @@
     <t>쓰레기썩은 무</t>
   </si>
   <si>
-    <t>주민의 몸[21]</t>
+    <t>주민의 몸[22]</t>
   </si>
   <si>
     <t>바위, 낮은 묘목</t>
@@ -1020,7 +1023,7 @@
         <v>138</v>
       </c>
       <c r="G2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1040,7 +1043,7 @@
         <v>138</v>
       </c>
       <c r="G3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1060,7 +1063,7 @@
         <v>138</v>
       </c>
       <c r="G4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1080,7 +1083,7 @@
         <v>139</v>
       </c>
       <c r="G5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1100,7 +1103,7 @@
         <v>138</v>
       </c>
       <c r="G6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1120,7 +1123,7 @@
         <v>138</v>
       </c>
       <c r="G7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1140,7 +1143,7 @@
         <v>138</v>
       </c>
       <c r="G8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1160,7 +1163,7 @@
         <v>138</v>
       </c>
       <c r="G9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1180,7 +1183,7 @@
         <v>138</v>
       </c>
       <c r="G10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1200,7 +1203,7 @@
         <v>138</v>
       </c>
       <c r="G11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1220,7 +1223,7 @@
         <v>140</v>
       </c>
       <c r="G12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1240,7 +1243,7 @@
         <v>138</v>
       </c>
       <c r="G13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1260,7 +1263,7 @@
         <v>141</v>
       </c>
       <c r="G14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1280,7 +1283,7 @@
         <v>142</v>
       </c>
       <c r="G15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1300,7 +1303,7 @@
         <v>138</v>
       </c>
       <c r="G16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1320,7 +1323,7 @@
         <v>143</v>
       </c>
       <c r="G17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1340,7 +1343,7 @@
         <v>143</v>
       </c>
       <c r="G18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1360,7 +1363,7 @@
         <v>143</v>
       </c>
       <c r="G19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1380,7 +1383,7 @@
         <v>143</v>
       </c>
       <c r="G20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1400,7 +1403,7 @@
         <v>143</v>
       </c>
       <c r="G21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1420,7 +1423,7 @@
         <v>143</v>
       </c>
       <c r="G22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1440,7 +1443,7 @@
         <v>144</v>
       </c>
       <c r="G23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1460,7 +1463,7 @@
         <v>145</v>
       </c>
       <c r="G24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1480,7 +1483,7 @@
         <v>140</v>
       </c>
       <c r="G25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1500,7 +1503,7 @@
         <v>146</v>
       </c>
       <c r="G26" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1520,7 +1523,7 @@
         <v>142</v>
       </c>
       <c r="G27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1540,7 +1543,7 @@
         <v>142</v>
       </c>
       <c r="G28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1560,7 +1563,7 @@
         <v>142</v>
       </c>
       <c r="G29" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1580,7 +1583,7 @@
         <v>142</v>
       </c>
       <c r="G30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1600,7 +1603,7 @@
         <v>142</v>
       </c>
       <c r="G31" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1620,7 +1623,7 @@
         <v>142</v>
       </c>
       <c r="G32" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1640,7 +1643,7 @@
         <v>138</v>
       </c>
       <c r="G33" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1660,7 +1663,7 @@
         <v>138</v>
       </c>
       <c r="G34" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1677,10 +1680,10 @@
         <v>123</v>
       </c>
       <c r="F35" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="G35" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1700,7 +1703,7 @@
         <v>138</v>
       </c>
       <c r="G36" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1717,10 +1720,10 @@
         <v>126</v>
       </c>
       <c r="F37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G37" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1737,10 +1740,10 @@
         <v>131</v>
       </c>
       <c r="F38" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G38" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1757,10 +1760,10 @@
         <v>122</v>
       </c>
       <c r="F39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1777,10 +1780,10 @@
         <v>122</v>
       </c>
       <c r="F40" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G40" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1797,10 +1800,10 @@
         <v>132</v>
       </c>
       <c r="F41" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G41" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1820,7 +1823,7 @@
         <v>144</v>
       </c>
       <c r="G42" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1840,7 +1843,7 @@
         <v>144</v>
       </c>
       <c r="G43" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1860,7 +1863,7 @@
         <v>144</v>
       </c>
       <c r="G44" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1877,10 +1880,10 @@
         <v>131</v>
       </c>
       <c r="F45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G45" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1897,10 +1900,10 @@
         <v>131</v>
       </c>
       <c r="F46" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G46" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1917,10 +1920,10 @@
         <v>131</v>
       </c>
       <c r="F47" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1937,10 +1940,10 @@
         <v>131</v>
       </c>
       <c r="F48" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G48" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1957,10 +1960,10 @@
         <v>131</v>
       </c>
       <c r="F49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G49" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1977,10 +1980,10 @@
         <v>131</v>
       </c>
       <c r="F50" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G50" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1997,10 +2000,10 @@
         <v>131</v>
       </c>
       <c r="F51" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G51" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2017,10 +2020,10 @@
         <v>131</v>
       </c>
       <c r="F52" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G52" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2040,7 +2043,7 @@
         <v>142</v>
       </c>
       <c r="G53" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2060,7 +2063,7 @@
         <v>142</v>
       </c>
       <c r="G54" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2077,10 +2080,10 @@
         <v>124</v>
       </c>
       <c r="F55" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G55" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2097,10 +2100,10 @@
         <v>131</v>
       </c>
       <c r="F56" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2120,7 +2123,7 @@
         <v>142</v>
       </c>
       <c r="G57" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2140,7 +2143,7 @@
         <v>142</v>
       </c>
       <c r="G58" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2160,7 +2163,7 @@
         <v>142</v>
       </c>
       <c r="G59" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2177,10 +2180,10 @@
         <v>124</v>
       </c>
       <c r="F60" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G60" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2197,10 +2200,10 @@
         <v>124</v>
       </c>
       <c r="F61" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G61" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2217,10 +2220,10 @@
         <v>124</v>
       </c>
       <c r="F62" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G62" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2240,7 +2243,7 @@
         <v>142</v>
       </c>
       <c r="G63" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2257,10 +2260,10 @@
         <v>124</v>
       </c>
       <c r="F64" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G64" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2277,10 +2280,10 @@
         <v>124</v>
       </c>
       <c r="F65" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G65" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2297,10 +2300,10 @@
         <v>124</v>
       </c>
       <c r="F66" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G66" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2317,10 +2320,10 @@
         <v>134</v>
       </c>
       <c r="F67" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G67" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2337,10 +2340,10 @@
         <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G68" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2357,10 +2360,10 @@
         <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G69" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2377,10 +2380,10 @@
         <v>129</v>
       </c>
       <c r="F70" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G70" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2397,10 +2400,10 @@
         <v>132</v>
       </c>
       <c r="F71" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G71" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2417,10 +2420,10 @@
         <v>131</v>
       </c>
       <c r="F72" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G72" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2437,10 +2440,10 @@
         <v>129</v>
       </c>
       <c r="F73" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G73" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2460,7 +2463,7 @@
         <v>138</v>
       </c>
       <c r="G74" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2477,10 +2480,10 @@
         <v>129</v>
       </c>
       <c r="F75" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G75" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2497,10 +2500,10 @@
         <v>131</v>
       </c>
       <c r="F76" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G76" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2517,10 +2520,10 @@
         <v>136</v>
       </c>
       <c r="F77" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G77" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2537,10 +2540,10 @@
         <v>137</v>
       </c>
       <c r="F78" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G78" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2557,10 +2560,10 @@
         <v>132</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G79" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2577,10 +2580,10 @@
         <v>126</v>
       </c>
       <c r="F80" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G80" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2597,10 +2600,10 @@
         <v>126</v>
       </c>
       <c r="F81" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G81" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
